--- a/data/trans_orig/IP11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEEC81A3-24CA-4E59-900E-621F42F046CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5421D5D8-8476-4A3C-B62A-D718DE072E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{48E442BE-3E4C-46FF-9C9A-71716038EF24}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{44DDEE65-0780-4C30-A5E1-108EAC02037F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="326">
   <si>
     <t>Menores según si han sufrido algún accidente que haya limitao su actividad normal en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,6 +71,69 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>996.0</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -86,72 +149,132 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
     <t>0,45%</t>
   </si>
   <si>
@@ -161,124 +284,52 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -290,106 +341,166 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
     <t>Menores según si han sufrido algún accidente que haya limitao su actividad normal en los últimos 12 meses en 2012 (Tasa respuesta: 99,81%)</t>
   </si>
   <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
   </si>
   <si>
     <t>0,48%</t>
@@ -401,114 +512,6 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
     <t>88,33%</t>
   </si>
   <si>
@@ -560,61 +563,169 @@
     <t>Menores según si han sufrido algún accidente que haya limitao su actividad normal en los últimos 12 meses en 2015 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>0,5%</t>
@@ -623,114 +734,6 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
     <t>94,52%</t>
   </si>
   <si>
@@ -782,61 +785,163 @@
     <t>Menores según si han sufrido algún accidente que haya limitao su actividad normal en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
     <t>0,84%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -851,106 +956,52 @@
     <t>0,75%</t>
   </si>
   <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -966,54 +1017,6 @@
   </si>
   <si>
     <t>0,32%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B6E12C-D75E-45C5-A6B3-884551DC890C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624BC299-C42D-4FEC-9421-07F3F5388CDA}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1519,155 +1522,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>996</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>207889</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>199590</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>407479</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>311</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>207889</v>
+        <v>15272</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="7">
-        <v>303</v>
-      </c>
       <c r="I5" s="7">
-        <v>199590</v>
+        <v>10606</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>614</v>
+        <v>40</v>
       </c>
       <c r="N5" s="7">
-        <v>407479</v>
+        <v>25878</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>15272</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>10606</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="7">
-        <v>40</v>
-      </c>
-      <c r="N6" s="7">
-        <v>25878</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1682,13 +1685,13 @@
         <v>223161</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>320</v>
@@ -1697,13 +1700,13 @@
         <v>210196</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>654</v>
@@ -1712,168 +1715,168 @@
         <v>433357</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>996</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>206320</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>196006</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>603</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>402326</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>393</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>261966</v>
+        <v>11721</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
-        <v>371</v>
+        <v>13</v>
       </c>
       <c r="I9" s="7">
-        <v>250121</v>
+        <v>9216</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
-        <v>764</v>
+        <v>31</v>
       </c>
       <c r="N9" s="7">
-        <v>512087</v>
+        <v>20937</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>19532</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>15482</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>35014</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1882,204 +1885,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D11" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I11" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N11" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="5">
-        <v>996</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>261966</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>250121</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>512087</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>206320</v>
+        <v>19532</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>291</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>196006</v>
+        <v>15482</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>603</v>
+        <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>402326</v>
+        <v>35014</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>11721</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>9216</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="7">
-        <v>20937</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,204 +2091,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D15" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I15" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N15" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
-        <v>996</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>676175</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>645717</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1981</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1321892</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1016</v>
+        <v>70</v>
       </c>
       <c r="D17" s="7">
-        <v>676175</v>
+        <v>46525</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
-        <v>965</v>
+        <v>53</v>
       </c>
       <c r="I17" s="7">
-        <v>645717</v>
+        <v>35304</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
-        <v>1981</v>
+        <v>123</v>
       </c>
       <c r="N17" s="7">
-        <v>1321892</v>
+        <v>81829</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>46525</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>35304</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>81829</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2303,13 @@
         <v>722700</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>1018</v>
@@ -2315,13 +2318,13 @@
         <v>681021</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>2104</v>
@@ -2330,13 +2333,13 @@
         <v>1403721</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2355,7 +2358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B7BDBB-93BA-46B9-8A52-26E13AF70B6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6C1C1D-66EF-4A6C-B147-0C0FB8222773}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2372,7 +2375,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2469,155 +2472,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>996</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>219265</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>213013</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>432278</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>309</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>219265</v>
+        <v>18068</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H5" s="7">
-        <v>319</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>213013</v>
+        <v>12084</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="M5" s="7">
-        <v>628</v>
+        <v>46</v>
       </c>
       <c r="N5" s="7">
-        <v>432278</v>
+        <v>30152</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>18068</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>12084</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="M6" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>30152</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2635,13 @@
         <v>237333</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>338</v>
@@ -2647,13 +2650,13 @@
         <v>225097</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>674</v>
@@ -2662,168 +2665,168 @@
         <v>462430</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>996</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>219729</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>206288</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>426017</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>353</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7">
-        <v>238698</v>
+        <v>22262</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="H9" s="7">
-        <v>341</v>
+        <v>32</v>
       </c>
       <c r="I9" s="7">
-        <v>239966</v>
+        <v>23184</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="M9" s="7">
-        <v>694</v>
+        <v>63</v>
       </c>
       <c r="N9" s="7">
-        <v>478664</v>
+        <v>45446</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>33047</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>16445</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>49492</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,204 +2835,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>400</v>
+        <v>335</v>
       </c>
       <c r="D11" s="7">
-        <v>271745</v>
+        <v>241991</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="I11" s="7">
-        <v>256411</v>
+        <v>229472</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>765</v>
+        <v>656</v>
       </c>
       <c r="N11" s="7">
-        <v>528156</v>
+        <v>471463</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="5">
-        <v>996</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>238698</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>239966</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>478664</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>304</v>
+        <v>47</v>
       </c>
       <c r="D13" s="7">
-        <v>219729</v>
+        <v>33047</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H13" s="7">
-        <v>289</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>206288</v>
+        <v>16445</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
-        <v>593</v>
+        <v>71</v>
       </c>
       <c r="N13" s="7">
-        <v>426017</v>
+        <v>49492</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="7">
-        <v>22262</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="7">
-        <v>23184</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>45446</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,204 +3041,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="D15" s="7">
-        <v>241991</v>
+        <v>271745</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="I15" s="7">
-        <v>229472</v>
+        <v>256411</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>656</v>
+        <v>765</v>
       </c>
       <c r="N15" s="7">
-        <v>471463</v>
+        <v>528156</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
-        <v>996</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>966</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>677692</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>949</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>659268</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1915</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1336960</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>966</v>
+        <v>105</v>
       </c>
       <c r="D17" s="7">
-        <v>677692</v>
+        <v>73377</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
-        <v>949</v>
+        <v>75</v>
       </c>
       <c r="I17" s="7">
-        <v>659268</v>
+        <v>51712</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
-        <v>1915</v>
+        <v>180</v>
       </c>
       <c r="N17" s="7">
-        <v>1336960</v>
+        <v>125089</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>73377</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>51712</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>125089</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3253,13 @@
         <v>751069</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>1024</v>
@@ -3265,13 +3268,13 @@
         <v>710980</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>2095</v>
@@ -3280,13 +3283,13 @@
         <v>1462049</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3305,7 +3308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C672B21-10A4-4CCD-9948-57F55DFCE13D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1266743-B2CD-4A65-8057-EE2D1DB392A3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3322,7 +3325,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3419,155 +3422,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>996</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>204622</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>198477</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>403099</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>204622</v>
+        <v>7862</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
-        <v>321</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>198477</v>
+        <v>2791</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
-        <v>629</v>
+        <v>17</v>
       </c>
       <c r="N5" s="7">
-        <v>403099</v>
+        <v>10653</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>7862</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>2791</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M6" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>10653</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,13 +3585,13 @@
         <v>212484</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>326</v>
@@ -3597,13 +3600,13 @@
         <v>201268</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>646</v>
@@ -3612,168 +3615,168 @@
         <v>413752</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>996</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>239298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>225610</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>464908</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>350</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>258858</v>
+        <v>10754</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="H9" s="7">
-        <v>356</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>254605</v>
+        <v>8822</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M9" s="7">
-        <v>706</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>513464</v>
+        <v>19576</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>22109</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H10" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>11756</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>33864</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,204 +3785,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D11" s="7">
-        <v>280967</v>
+        <v>250052</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="I11" s="7">
-        <v>266361</v>
+        <v>234432</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>753</v>
+        <v>722</v>
       </c>
       <c r="N11" s="7">
-        <v>547328</v>
+        <v>484484</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="5">
-        <v>996</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>258858</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>254605</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>215</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>513464</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>347</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>239298</v>
+        <v>22109</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7">
-        <v>345</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>225610</v>
+        <v>11756</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
-        <v>692</v>
+        <v>47</v>
       </c>
       <c r="N13" s="7">
-        <v>464908</v>
+        <v>33864</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>10754</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>8822</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>19576</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,204 +3991,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D15" s="7">
-        <v>250052</v>
+        <v>280967</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="I15" s="7">
-        <v>234432</v>
+        <v>266361</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>722</v>
+        <v>753</v>
       </c>
       <c r="N15" s="7">
-        <v>484484</v>
+        <v>547328</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
-        <v>996</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>702779</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>678692</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>2027</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1381471</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>1005</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7">
-        <v>702779</v>
+        <v>40724</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
-        <v>1022</v>
+        <v>36</v>
       </c>
       <c r="I17" s="7">
-        <v>678692</v>
+        <v>23369</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
-        <v>2027</v>
+        <v>94</v>
       </c>
       <c r="N17" s="7">
-        <v>1381471</v>
+        <v>64093</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>40724</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>240</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>23369</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>243</v>
+        <v>97</v>
       </c>
       <c r="M18" s="7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>64093</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>245</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4203,13 @@
         <v>743503</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>1058</v>
@@ -4215,13 +4218,13 @@
         <v>702061</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>2121</v>
@@ -4230,13 +4233,13 @@
         <v>1445564</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4255,7 +4258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A61B2D6-0543-4957-A516-C760EC23CB8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C019CCA2-BB6D-4838-AA3C-D7CE914AB9C3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4272,7 +4275,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4369,155 +4372,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>996</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>115493</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>102001</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>217493</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>37</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>223</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>115493</v>
+        <v>2445</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="H5" s="7">
-        <v>195</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>102001</v>
+        <v>1384</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="M5" s="7">
-        <v>418</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>217493</v>
+        <v>3830</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>2445</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>258</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>1384</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>260</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>261</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M6" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>3830</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>263</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>264</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>265</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4535,13 @@
         <v>117938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>198</v>
@@ -4547,13 +4550,13 @@
         <v>103385</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>425</v>
@@ -4562,168 +4565,168 @@
         <v>221323</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>996</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>195566</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>267</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>268</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="I8" s="7">
-        <v>833</v>
+        <v>193041</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>533</v>
       </c>
       <c r="N8" s="7">
-        <v>833</v>
+        <v>388608</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>268</v>
+        <v>105</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>10</v>
+        <v>272</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>464</v>
+        <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>391241</v>
+        <v>8495</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H9" s="7">
-        <v>447</v>
+        <v>8</v>
       </c>
       <c r="I9" s="7">
-        <v>340217</v>
+        <v>5226</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M9" s="7">
-        <v>911</v>
+        <v>18</v>
       </c>
       <c r="N9" s="7">
-        <v>731458</v>
+        <v>13721</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>275</v>
+        <v>113</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>11469</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>279</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>10591</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="M10" s="7">
-        <v>30</v>
-      </c>
-      <c r="N10" s="7">
-        <v>22060</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,204 +4735,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>479</v>
+        <v>270</v>
       </c>
       <c r="D11" s="7">
-        <v>402710</v>
+        <v>204061</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>463</v>
+        <v>281</v>
       </c>
       <c r="I11" s="7">
-        <v>351641</v>
+        <v>198267</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>942</v>
+        <v>551</v>
       </c>
       <c r="N11" s="7">
-        <v>754351</v>
+        <v>402329</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="5">
-        <v>996</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>391241</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>284</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H12" s="7">
+        <v>447</v>
+      </c>
+      <c r="I12" s="7">
+        <v>340217</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>288</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>911</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>731458</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>290</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7">
         <v>15</v>
       </c>
-      <c r="C13" s="7">
-        <v>260</v>
-      </c>
       <c r="D13" s="7">
-        <v>195566</v>
+        <v>11469</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
-        <v>273</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>193041</v>
+        <v>10591</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M13" s="7">
-        <v>533</v>
+        <v>30</v>
       </c>
       <c r="N13" s="7">
-        <v>388608</v>
+        <v>22060</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>105</v>
+        <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>8495</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>5226</v>
+        <v>833</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>13721</v>
+        <v>833</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>113</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,204 +4941,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>270</v>
+        <v>479</v>
       </c>
       <c r="D15" s="7">
-        <v>204061</v>
+        <v>402710</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>281</v>
+        <v>463</v>
       </c>
       <c r="I15" s="7">
-        <v>198267</v>
+        <v>351641</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>551</v>
+        <v>942</v>
       </c>
       <c r="N15" s="7">
-        <v>402329</v>
+        <v>754351</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
-        <v>996</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>947</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>702300</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>915</v>
       </c>
       <c r="I16" s="7">
-        <v>833</v>
+        <v>635260</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>1862</v>
       </c>
       <c r="N16" s="7">
-        <v>833</v>
+        <v>1337560</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>947</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7">
-        <v>702300</v>
+        <v>22410</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
-        <v>915</v>
+        <v>26</v>
       </c>
       <c r="I17" s="7">
-        <v>635260</v>
+        <v>17201</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
-        <v>1862</v>
+        <v>55</v>
       </c>
       <c r="N17" s="7">
-        <v>1337560</v>
+        <v>39611</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>22410</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>316</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>317</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H18" s="7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>17201</v>
+        <v>833</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>320</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M18" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>39611</v>
+        <v>833</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>323</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,13 +5153,13 @@
         <v>724710</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>942</v>
@@ -5165,13 +5168,13 @@
         <v>653294</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>1918</v>
@@ -5180,13 +5183,13 @@
         <v>1378003</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5421D5D8-8476-4A3C-B62A-D718DE072E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CB42CF7-3CEB-415A-AF5F-4E07D109E938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{44DDEE65-0780-4C30-A5E1-108EAC02037F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3965C569-A0F7-48D8-9016-FE72DEBAD000}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="326">
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitao su actividad normal en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="394">
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,898 +68,1138 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>996.0</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2012 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2015 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>95,57%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>996.0</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
     <t>94,62%</t>
   </si>
   <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>97,36%</t>
   </si>
   <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitao su actividad normal en los últimos 12 meses en 2012 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitao su actividad normal en los últimos 12 meses en 2015 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitao su actividad normal en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
   </si>
   <si>
     <t>96,91%</t>
   </si>
   <si>
-    <t>95,46%</t>
+    <t>95,62%</t>
   </si>
   <si>
     <t>97,89%</t>
@@ -971,52 +1211,16 @@
     <t>95,99%</t>
   </si>
   <si>
-    <t>98,13%</t>
+    <t>98,21%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1231,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1123,39 +1327,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1207,7 +1411,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1318,13 +1522,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1333,6 +1530,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1397,19 +1601,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624BC299-C42D-4FEC-9421-07F3F5388CDA}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBCCD9A-FDB2-481D-9814-CF797A41123C}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1526,10 +1750,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>207889</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1541,133 +1765,133 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>199590</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>614</v>
-      </c>
-      <c r="N4" s="7">
-        <v>407479</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7037</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3529</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7">
+        <v>17</v>
+      </c>
+      <c r="N5" s="7">
+        <v>10565</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7">
-        <v>15272</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>17</v>
-      </c>
-      <c r="I5" s="7">
-        <v>10606</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>40</v>
-      </c>
-      <c r="N5" s="7">
-        <v>25878</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
+        <v>171</v>
+      </c>
+      <c r="D6" s="7">
+        <v>114343</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
+        <v>156</v>
+      </c>
+      <c r="I6" s="7">
+        <v>102642</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>327</v>
+      </c>
+      <c r="N6" s="7">
+        <v>216986</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>35</v>
@@ -1679,10 +1903,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D7" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -1694,10 +1918,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I7" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -1709,10 +1933,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N7" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1732,151 +1956,151 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>206320</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="H8" s="7">
-        <v>291</v>
-      </c>
-      <c r="I8" s="7">
-        <v>196006</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="7">
-        <v>603</v>
-      </c>
-      <c r="N8" s="7">
-        <v>402326</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7">
+        <v>16060</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="7">
         <v>20</v>
       </c>
-      <c r="C9" s="7">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7">
-        <v>11721</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="I9" s="7">
+        <v>13363</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="7">
+        <v>44</v>
+      </c>
+      <c r="N9" s="7">
+        <v>29423</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="7">
-        <v>13</v>
-      </c>
-      <c r="I9" s="7">
-        <v>9216</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="7">
-        <v>31</v>
-      </c>
-      <c r="N9" s="7">
-        <v>20937</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>237696</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="7">
+        <v>359</v>
+      </c>
+      <c r="I10" s="7">
+        <v>239842</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="7">
+        <v>717</v>
+      </c>
+      <c r="N10" s="7">
+        <v>477538</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1885,10 +2109,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -1900,10 +2124,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I11" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -1915,10 +2139,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N11" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1932,157 +2156,157 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>261966</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="7">
-        <v>371</v>
-      </c>
-      <c r="I12" s="7">
-        <v>250121</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="7">
-        <v>764</v>
-      </c>
-      <c r="N12" s="7">
-        <v>512087</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7">
+        <v>11060</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="7">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7">
+        <v>8794</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="7">
         <v>29</v>
       </c>
-      <c r="D13" s="7">
-        <v>19532</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="N13" s="7">
+        <v>19854</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="7">
-        <v>23</v>
-      </c>
-      <c r="I13" s="7">
-        <v>15482</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="7">
-        <v>52</v>
-      </c>
-      <c r="N13" s="7">
-        <v>35014</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>130455</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="7">
+        <v>178</v>
+      </c>
+      <c r="I14" s="7">
+        <v>118754</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="7">
+        <v>374</v>
+      </c>
+      <c r="N14" s="7">
+        <v>249209</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,10 +2315,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D15" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -2106,10 +2330,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I15" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -2121,10 +2345,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N15" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -2138,157 +2362,157 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>676175</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="7">
-        <v>965</v>
-      </c>
-      <c r="I16" s="7">
-        <v>645717</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1981</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1321892</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="D17" s="7">
-        <v>46525</v>
+        <v>12369</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="7">
+        <v>14</v>
+      </c>
+      <c r="I17" s="7">
+        <v>9618</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="7">
+        <v>33</v>
+      </c>
+      <c r="N17" s="7">
+        <v>21987</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="H17" s="7">
-        <v>53</v>
-      </c>
-      <c r="I17" s="7">
-        <v>35304</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M17" s="7">
-        <v>123</v>
-      </c>
-      <c r="N17" s="7">
-        <v>81829</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>193680</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="7">
+        <v>272</v>
+      </c>
+      <c r="I18" s="7">
+        <v>184479</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>563</v>
+      </c>
+      <c r="N18" s="7">
+        <v>378159</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,55 +2521,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>310</v>
+      </c>
+      <c r="D19" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
+        <v>286</v>
+      </c>
+      <c r="I19" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="7">
+        <v>596</v>
+      </c>
+      <c r="N19" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>70</v>
+      </c>
+      <c r="D21" s="7">
+        <v>46525</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="7">
+        <v>53</v>
+      </c>
+      <c r="I21" s="7">
+        <v>35304</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" s="7">
+        <v>123</v>
+      </c>
+      <c r="N21" s="7">
+        <v>81829</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1016</v>
+      </c>
+      <c r="D22" s="7">
+        <v>676175</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="7">
+        <v>965</v>
+      </c>
+      <c r="I22" s="7">
+        <v>645717</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1981</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1321892</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>1086</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>722700</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>1018</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>681021</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="7">
         <v>2104</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1403721</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2358,8 +2794,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6C1C1D-66EF-4A6C-B147-0C0FB8222773}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61508164-351E-4DCA-AD28-554912701CCE}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2375,7 +2811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2476,151 +2912,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>219265</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>213013</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>432278</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>18068</v>
+        <v>9210</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>12084</v>
+        <v>10712</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="M5" s="7">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N5" s="7">
-        <v>30152</v>
+        <v>19922</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>134949</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>135638</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>270587</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,10 +3065,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>336</v>
+        <v>205</v>
       </c>
       <c r="D7" s="7">
-        <v>237333</v>
+        <v>144159</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -2644,10 +3080,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>338</v>
+        <v>218</v>
       </c>
       <c r="I7" s="7">
-        <v>225097</v>
+        <v>146350</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -2659,10 +3095,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>674</v>
+        <v>423</v>
       </c>
       <c r="N7" s="7">
-        <v>462430</v>
+        <v>290509</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -2682,151 +3118,151 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>219729</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>206288</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="M8" s="7">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>426017</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D9" s="7">
-        <v>22262</v>
+        <v>28238</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="H9" s="7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I9" s="7">
-        <v>23184</v>
+        <v>18470</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="M9" s="7">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N9" s="7">
-        <v>45446</v>
+        <v>46707</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>240753</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>217780</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>458534</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,10 +3271,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="D11" s="7">
-        <v>241991</v>
+        <v>268991</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2850,10 +3286,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="I11" s="7">
-        <v>229472</v>
+        <v>236250</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2865,10 +3301,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>656</v>
+        <v>714</v>
       </c>
       <c r="N11" s="7">
-        <v>471463</v>
+        <v>505241</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2882,157 +3318,157 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>238698</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="H12" s="7">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>239966</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="M12" s="7">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>478664</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>33047</v>
+        <v>12458</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>16445</v>
+        <v>10777</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N13" s="7">
-        <v>49492</v>
+        <v>23234</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>145506</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>146266</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>291773</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,10 +3477,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>400</v>
+        <v>227</v>
       </c>
       <c r="D15" s="7">
-        <v>271745</v>
+        <v>157964</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -3056,10 +3492,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>365</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>256411</v>
+        <v>157043</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -3071,10 +3507,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>765</v>
+        <v>450</v>
       </c>
       <c r="N15" s="7">
-        <v>528156</v>
+        <v>315007</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -3088,154 +3524,154 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>966</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>677692</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7">
-        <v>949</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>659268</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
-        <v>1915</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>1336960</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="D17" s="7">
-        <v>73377</v>
+        <v>23472</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="H17" s="7">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="I17" s="7">
-        <v>51712</v>
+        <v>11754</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M17" s="7">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="N17" s="7">
-        <v>125089</v>
+        <v>35226</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>156483</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>159583</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>316066</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>99</v>
@@ -3247,55 +3683,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>265</v>
+      </c>
+      <c r="D19" s="7">
+        <v>179955</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
+        <v>243</v>
+      </c>
+      <c r="I19" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="7">
+        <v>508</v>
+      </c>
+      <c r="N19" s="7">
+        <v>351292</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>105</v>
+      </c>
+      <c r="D21" s="7">
+        <v>73377</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H21" s="7">
+        <v>75</v>
+      </c>
+      <c r="I21" s="7">
+        <v>51712</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M21" s="7">
+        <v>180</v>
+      </c>
+      <c r="N21" s="7">
+        <v>125089</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7">
+        <v>966</v>
+      </c>
+      <c r="D22" s="7">
+        <v>677692</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H22" s="7">
+        <v>949</v>
+      </c>
+      <c r="I22" s="7">
+        <v>659268</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1915</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1336960</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>1071</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>751069</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>1024</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>710980</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="7">
         <v>2095</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1462049</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3308,8 +3956,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1266743-B2CD-4A65-8057-EE2D1DB392A3}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB00D2A-EE8D-4B06-B2B5-A9CAE397BCC3}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3325,7 +3973,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3426,151 +4074,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>204622</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="H4" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>198477</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
-        <v>629</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>403099</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>7862</v>
+        <v>2739</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>2791</v>
+        <v>1119</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="M5" s="7">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>10653</v>
+        <v>3858</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>121425</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>130535</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>251960</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>58</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,10 +4227,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>320</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>212484</v>
+        <v>124164</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -3594,10 +4242,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I7" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -3609,10 +4257,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>646</v>
+        <v>398</v>
       </c>
       <c r="N7" s="7">
-        <v>413752</v>
+        <v>255818</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -3632,151 +4280,151 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>239298</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>225610</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="M8" s="7">
-        <v>692</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>464908</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7">
-        <v>10754</v>
+        <v>11379</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="H9" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I9" s="7">
-        <v>8822</v>
+        <v>6346</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="M9" s="7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N9" s="7">
-        <v>19576</v>
+        <v>17724</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>246003</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>203270</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>449274</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,10 +4433,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="D11" s="7">
-        <v>250052</v>
+        <v>257382</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -3800,10 +4448,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="I11" s="7">
-        <v>234432</v>
+        <v>209616</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3815,10 +4463,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="N11" s="7">
-        <v>484484</v>
+        <v>466998</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -3832,157 +4480,157 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>258858</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="H12" s="7">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>254605</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>215</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="M12" s="7">
-        <v>706</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>513464</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7">
+        <v>12191</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H13" s="7">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7">
+        <v>6265</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="7">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7">
-        <v>22109</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H13" s="7">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7">
-        <v>11756</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>33864</v>
+        <v>18456</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7">
+        <v>246</v>
+      </c>
+      <c r="D14" s="7">
+        <v>176381</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H14" s="7">
+        <v>262</v>
+      </c>
+      <c r="I14" s="7">
+        <v>182634</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>359015</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,10 +4639,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>380</v>
+        <v>263</v>
       </c>
       <c r="D15" s="7">
-        <v>280967</v>
+        <v>188572</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -4006,10 +4654,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>373</v>
+        <v>272</v>
       </c>
       <c r="I15" s="7">
-        <v>266361</v>
+        <v>188899</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4021,10 +4669,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>753</v>
+        <v>535</v>
       </c>
       <c r="N15" s="7">
-        <v>547328</v>
+        <v>377471</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -4038,157 +4686,157 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1005</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>702779</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="H16" s="7">
-        <v>1022</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>678692</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
-        <v>2027</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>1381471</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
         <v>20</v>
       </c>
-      <c r="C17" s="7">
-        <v>58</v>
-      </c>
       <c r="D17" s="7">
-        <v>40724</v>
+        <v>14415</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I17" s="7">
-        <v>23369</v>
+        <v>9639</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="N17" s="7">
-        <v>64093</v>
+        <v>24054</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>28</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>158970</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>279</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>280</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>162253</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>281</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>282</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>283</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>321223</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,55 +4845,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>234</v>
+      </c>
+      <c r="D19" s="7">
+        <v>173385</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
+        <v>244</v>
+      </c>
+      <c r="I19" s="7">
+        <v>171892</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="7">
+        <v>478</v>
+      </c>
+      <c r="N19" s="7">
+        <v>345277</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>58</v>
+      </c>
+      <c r="D21" s="7">
+        <v>40724</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H21" s="7">
+        <v>36</v>
+      </c>
+      <c r="I21" s="7">
+        <v>23369</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M21" s="7">
+        <v>94</v>
+      </c>
+      <c r="N21" s="7">
+        <v>64093</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1005</v>
+      </c>
+      <c r="D22" s="7">
+        <v>702779</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1022</v>
+      </c>
+      <c r="I22" s="7">
+        <v>678692</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M22" s="7">
+        <v>2027</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1381471</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>1063</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>743503</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>1058</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>702061</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="7">
         <v>2121</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1445564</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4258,8 +5118,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C019CCA2-BB6D-4838-AA3C-D7CE914AB9C3}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AC06A9-D3FA-4F3F-B054-670210D79EB2}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4275,7 +5135,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4376,151 +5236,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>115493</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="H4" s="7">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>102001</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>217493</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1268</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>753</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="M5" s="7">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
-        <v>2445</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1384</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="M5" s="7">
-        <v>7</v>
-      </c>
       <c r="N5" s="7">
-        <v>3830</v>
+        <v>2021</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>57235</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>314</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>315</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>56198</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>316</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>317</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>113432</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>318</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>319</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>78</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,10 +5389,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D7" s="7">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -4544,10 +5404,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="I7" s="7">
-        <v>103385</v>
+        <v>56951</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -4559,10 +5419,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>425</v>
+        <v>224</v>
       </c>
       <c r="N7" s="7">
-        <v>221323</v>
+        <v>115453</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -4582,151 +5442,151 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>195566</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="H8" s="7">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>193041</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="M8" s="7">
-        <v>533</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>388608</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>8495</v>
+        <v>5026</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="H9" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" s="7">
-        <v>5226</v>
+        <v>3782</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>326</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="M9" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N9" s="7">
-        <v>13721</v>
+        <v>8808</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>113</v>
+        <v>329</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>170273</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>332</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>333</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>154983</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>335</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>336</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>325255</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>338</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,10 +5595,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D11" s="7">
-        <v>204061</v>
+        <v>175299</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -4750,10 +5610,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I11" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -4765,10 +5625,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="N11" s="7">
-        <v>402329</v>
+        <v>334063</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -4782,157 +5642,157 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>391241</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
       <c r="H12" s="7">
-        <v>447</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>340217</v>
+        <v>833</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>178</v>
+        <v>341</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="M12" s="7">
-        <v>911</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>731458</v>
+        <v>833</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>11469</v>
+        <v>7487</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>293</v>
+        <v>346</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>10591</v>
+        <v>4950</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>296</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="M13" s="7">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>22060</v>
+        <v>12436</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>193997</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="I14" s="7">
-        <v>833</v>
+        <v>171163</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>459</v>
       </c>
       <c r="N14" s="7">
-        <v>833</v>
+        <v>365161</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,10 +5801,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>479</v>
+        <v>242</v>
       </c>
       <c r="D15" s="7">
-        <v>402710</v>
+        <v>201484</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -4956,10 +5816,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>463</v>
+        <v>234</v>
       </c>
       <c r="I15" s="7">
-        <v>351641</v>
+        <v>176945</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4971,10 +5831,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>942</v>
+        <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>754351</v>
+        <v>378430</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -4988,157 +5848,157 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>947</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>702300</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>305</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>307</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>635260</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="M16" s="7">
-        <v>1862</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>1337560</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>22410</v>
+        <v>8629</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>235</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>17201</v>
+        <v>7716</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="N17" s="7">
-        <v>39611</v>
+        <v>16345</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>280795</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>366</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>321</v>
+        <v>245</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="I18" s="7">
-        <v>833</v>
+        <v>252917</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>662</v>
       </c>
       <c r="N18" s="7">
-        <v>833</v>
+        <v>533712</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>31</v>
+        <v>370</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,55 +6007,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>342</v>
+      </c>
+      <c r="D19" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
+        <v>342</v>
+      </c>
+      <c r="I19" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="7">
+        <v>684</v>
+      </c>
+      <c r="N19" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
+        <v>833</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>833</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>29</v>
+      </c>
+      <c r="D21" s="7">
+        <v>22410</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H21" s="7">
+        <v>26</v>
+      </c>
+      <c r="I21" s="7">
+        <v>17201</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="M21" s="7">
+        <v>55</v>
+      </c>
+      <c r="N21" s="7">
+        <v>39611</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7">
+        <v>947</v>
+      </c>
+      <c r="D22" s="7">
+        <v>702300</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H22" s="7">
+        <v>915</v>
+      </c>
+      <c r="I22" s="7">
+        <v>635260</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1862</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1337560</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>976</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>724710</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>942</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>653294</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="7">
         <v>1918</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1378003</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP11-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CB42CF7-3CEB-415A-AF5F-4E07D109E938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30B3FFC4-137F-457A-A914-6477F6D1CCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3965C569-A0F7-48D8-9016-FE72DEBAD000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F933080-3CFE-4BE5-80E2-69A1897F6188}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="398">
   <si>
     <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1132 +95,1144 @@
     <t>5,8%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2012 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
   </si>
   <si>
     <t>94,92%</t>
   </si>
   <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
   </si>
   <si>
     <t>91,94%</t>
   </si>
   <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2012 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2016 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2015 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>98,16%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
+    <t>97,74%</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBCCD9A-FDB2-481D-9814-CF797A41123C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E7FFBF-5C63-4A0C-923D-4E40A5E06BAD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2667,7 +2679,7 @@
         <v>111</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2694,13 @@
         <v>676175</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>965</v>
@@ -2697,13 +2709,13 @@
         <v>645717</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>1981</v>
@@ -2712,13 +2724,13 @@
         <v>1321892</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,7 +2786,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61508164-351E-4DCA-AD28-554912701CCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E7CB1A-0E75-4896-9ACC-293587104B58}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2811,7 +2823,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2924,7 +2936,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2939,7 +2951,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2954,7 +2966,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2981,13 @@
         <v>9210</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -2984,13 +2996,13 @@
         <v>10712</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -2999,13 +3011,13 @@
         <v>19922</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3032,13 @@
         <v>134949</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H6" s="7">
         <v>201</v>
@@ -3035,13 +3047,13 @@
         <v>135638</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M6" s="7">
         <v>392</v>
@@ -3050,13 +3062,13 @@
         <v>270587</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,7 +3172,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3187,13 @@
         <v>28238</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -3193,10 +3205,10 @@
         <v>61</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M9" s="7">
         <v>66</v>
@@ -3205,13 +3217,13 @@
         <v>46707</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3238,13 @@
         <v>240753</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>314</v>
@@ -3244,10 +3256,10 @@
         <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>648</v>
@@ -3256,13 +3268,13 @@
         <v>458534</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,7 +3348,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3351,7 +3363,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3366,7 +3378,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3393,13 @@
         <v>12458</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -3396,13 +3408,13 @@
         <v>10777</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -3414,10 +3426,10 @@
         <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3444,13 @@
         <v>145506</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="H14" s="7">
         <v>208</v>
@@ -3447,13 +3459,13 @@
         <v>146266</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>419</v>
@@ -3465,10 +3477,10 @@
         <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,7 +3554,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3557,7 +3569,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3572,7 +3584,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,13 +3599,13 @@
         <v>23472</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -3602,13 +3614,13 @@
         <v>11754</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -3617,13 +3629,13 @@
         <v>35226</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3650,13 @@
         <v>156483</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>226</v>
@@ -3653,13 +3665,13 @@
         <v>159583</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M18" s="7">
         <v>456</v>
@@ -3668,13 +3680,13 @@
         <v>316066</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3805,13 @@
         <v>73377</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H21" s="7">
         <v>75</v>
@@ -3808,13 +3820,13 @@
         <v>51712</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M21" s="7">
         <v>180</v>
@@ -3823,13 +3835,13 @@
         <v>125089</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3856,13 @@
         <v>677692</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H22" s="7">
         <v>949</v>
@@ -3859,13 +3871,13 @@
         <v>659268</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="M22" s="7">
         <v>1915</v>
@@ -3874,13 +3886,13 @@
         <v>1336960</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,7 +3948,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3956,7 +3968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB00D2A-EE8D-4B06-B2B5-A9CAE397BCC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284A4839-E398-4F27-BDD2-9485FDC1DCF6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3973,7 +3985,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4086,7 +4098,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4101,7 +4113,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4131,13 +4143,13 @@
         <v>2739</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4146,13 +4158,13 @@
         <v>1119</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4161,13 +4173,13 @@
         <v>3858</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,13 +4194,13 @@
         <v>121425</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H6" s="7">
         <v>209</v>
@@ -4197,13 +4209,13 @@
         <v>130535</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M6" s="7">
         <v>392</v>
@@ -4212,13 +4224,13 @@
         <v>251960</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,7 +4319,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4322,7 +4334,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4349,13 @@
         <v>11379</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -4352,13 +4364,13 @@
         <v>6346</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -4367,13 +4379,13 @@
         <v>17724</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4400,13 @@
         <v>246003</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>321</v>
@@ -4403,13 +4415,13 @@
         <v>203270</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>683</v>
@@ -4418,13 +4430,13 @@
         <v>449274</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,7 +4510,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4513,7 +4525,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4528,7 +4540,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4555,13 @@
         <v>12191</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -4561,10 +4573,10 @@
         <v>20</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -4573,13 +4585,13 @@
         <v>18456</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>128</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4606,13 @@
         <v>176381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
@@ -4612,10 +4624,10 @@
         <v>30</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>508</v>
@@ -4624,13 +4636,13 @@
         <v>359015</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,7 +4716,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4719,7 +4731,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4734,7 +4746,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4761,13 @@
         <v>14415</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -4764,13 +4776,13 @@
         <v>9639</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -4779,13 +4791,13 @@
         <v>24054</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4812,13 @@
         <v>158970</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H18" s="7">
         <v>230</v>
@@ -4815,13 +4827,13 @@
         <v>162253</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M18" s="7">
         <v>444</v>
@@ -4830,13 +4842,13 @@
         <v>321223</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4967,13 @@
         <v>40724</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -4970,13 +4982,13 @@
         <v>23369</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M21" s="7">
         <v>94</v>
@@ -4985,13 +4997,13 @@
         <v>64093</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,13 +5018,13 @@
         <v>702779</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H22" s="7">
         <v>1022</v>
@@ -5021,13 +5033,13 @@
         <v>678692</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M22" s="7">
         <v>2027</v>
@@ -5036,13 +5048,13 @@
         <v>1381471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,7 +5110,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5118,7 +5130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AC06A9-D3FA-4F3F-B054-670210D79EB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A907DC5D-8548-470E-9AA6-637A477B1A8E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5135,7 +5147,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5248,7 +5260,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5263,7 +5275,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5278,7 +5290,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,13 +5305,13 @@
         <v>1268</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -5308,13 +5320,13 @@
         <v>753</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -5323,13 +5335,13 @@
         <v>2021</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>39</v>
+        <v>316</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>313</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5356,13 @@
         <v>57235</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H6" s="7">
         <v>106</v>
@@ -5359,13 +5371,13 @@
         <v>56198</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M6" s="7">
         <v>220</v>
@@ -5374,13 +5386,13 @@
         <v>113432</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>319</v>
+        <v>141</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,7 +5466,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5469,7 +5481,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5484,7 +5496,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5511,13 @@
         <v>5026</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -5514,13 +5526,13 @@
         <v>3782</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>327</v>
+        <v>124</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>328</v>
+        <v>149</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
@@ -5568,10 +5580,10 @@
         <v>335</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M10" s="7">
         <v>521</v>
@@ -5580,13 +5592,13 @@
         <v>325255</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,7 +5672,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5669,13 +5681,13 @@
         <v>833</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -5684,13 +5696,13 @@
         <v>833</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5717,13 @@
         <v>7487</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -5720,13 +5732,13 @@
         <v>4950</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>349</v>
+        <v>110</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -5735,10 +5747,10 @@
         <v>12436</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>351</v>
@@ -5777,7 +5789,7 @@
         <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>459</v>
@@ -5786,13 +5798,13 @@
         <v>365161</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,7 +5908,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,13 +5923,13 @@
         <v>8629</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -5926,13 +5938,13 @@
         <v>7716</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -5941,13 +5953,13 @@
         <v>16345</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,13 +5974,13 @@
         <v>280795</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>371</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H18" s="7">
         <v>331</v>
@@ -5977,13 +5989,13 @@
         <v>252917</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>280</v>
+        <v>373</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="M18" s="7">
         <v>662</v>
@@ -5992,13 +6004,13 @@
         <v>533712</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,7 +6084,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6081,13 +6093,13 @@
         <v>833</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6096,13 +6108,13 @@
         <v>833</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,13 +6129,13 @@
         <v>22410</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H21" s="7">
         <v>26</v>
@@ -6132,13 +6144,13 @@
         <v>17201</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="M21" s="7">
         <v>55</v>
@@ -6147,13 +6159,13 @@
         <v>39611</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,13 +6180,13 @@
         <v>702300</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H22" s="7">
         <v>915</v>
@@ -6183,13 +6195,13 @@
         <v>635260</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M22" s="7">
         <v>1862</v>
@@ -6198,13 +6210,13 @@
         <v>1337560</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>392</v>
+        <v>94</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6260,7 +6272,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30B3FFC4-137F-457A-A914-6477F6D1CCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AAD2BE8-F8E3-458B-B88F-4EB47F46445E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F933080-3CFE-4BE5-80E2-69A1897F6188}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{F53F4219-5BD6-414A-99BE-6A1D7F1B312A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="394">
   <si>
     <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,73 +80,73 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
     <t>94,2%</t>
   </si>
   <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
   </si>
   <si>
     <t>95,36%</t>
   </si>
   <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -155,58 +155,58 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
     <t>6,33%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>7,66%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
   </si>
   <si>
     <t>93,67%</t>
   </si>
   <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
   </si>
   <si>
     <t>95,68%</t>
@@ -215,1024 +215,1012 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>92,18%</t>
   </si>
   <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>92,62%</t>
   </si>
   <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
     <t>0,32%</t>
   </si>
   <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>3,7%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2012 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2016 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>96,01%</t>
   </si>
   <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2012 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2016 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>7,04%</t>
   </si>
   <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>92,96%</t>
   </si>
   <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>95,88%</t>
   </si>
   <si>
     <t>95,57%</t>
   </si>
   <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
+    <t>1,76%</t>
+  </si>
+  <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
   </si>
   <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>97,03%</t>
   </si>
   <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>97,86%</t>
   </si>
   <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E7FFBF-5C63-4A0C-923D-4E40A5E06BAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A32F6B0-B2F7-451C-8CEF-CB65BE380121}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1813,10 +1801,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>7037</v>
+        <v>3529</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1828,10 +1816,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>3529</v>
+        <v>7037</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -1864,10 +1852,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D6" s="7">
-        <v>114343</v>
+        <v>102642</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -1879,10 +1867,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7">
-        <v>102642</v>
+        <v>114343</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1915,25 +1903,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>162</v>
+      </c>
+      <c r="D7" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>182</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>121380</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>162</v>
-      </c>
-      <c r="I7" s="7">
-        <v>106171</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -2019,10 +2007,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" s="7">
-        <v>16060</v>
+        <v>13363</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>41</v>
@@ -2034,10 +2022,10 @@
         <v>43</v>
       </c>
       <c r="H9" s="7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I9" s="7">
-        <v>13363</v>
+        <v>16060</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>44</v>
@@ -2055,7 +2043,7 @@
         <v>29423</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>47</v>
@@ -2070,10 +2058,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D10" s="7">
-        <v>237696</v>
+        <v>239842</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -2085,10 +2073,10 @@
         <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I10" s="7">
-        <v>239842</v>
+        <v>237696</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
@@ -2106,7 +2094,7 @@
         <v>477538</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>55</v>
@@ -2121,25 +2109,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>379</v>
+      </c>
+      <c r="D11" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>382</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>253756</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>379</v>
-      </c>
-      <c r="I11" s="7">
-        <v>253205</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2225,10 +2213,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>11060</v>
+        <v>8794</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>61</v>
@@ -2240,10 +2228,10 @@
         <v>63</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>8794</v>
+        <v>11060</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>64</v>
@@ -2276,10 +2264,10 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D14" s="7">
-        <v>130455</v>
+        <v>118754</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>70</v>
@@ -2291,10 +2279,10 @@
         <v>72</v>
       </c>
       <c r="H14" s="7">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="I14" s="7">
-        <v>118754</v>
+        <v>130455</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>73</v>
@@ -2327,25 +2315,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>191</v>
+      </c>
+      <c r="D15" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>212</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>141515</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>191</v>
-      </c>
-      <c r="I15" s="7">
-        <v>127548</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -2431,10 +2419,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>12369</v>
+        <v>9618</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>83</v>
@@ -2446,10 +2434,10 @@
         <v>85</v>
       </c>
       <c r="H17" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>9618</v>
+        <v>12369</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>86</v>
@@ -2482,10 +2470,10 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="D18" s="7">
-        <v>193680</v>
+        <v>184479</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>92</v>
@@ -2497,10 +2485,10 @@
         <v>94</v>
       </c>
       <c r="H18" s="7">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="I18" s="7">
-        <v>184479</v>
+        <v>193680</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>95</v>
@@ -2533,25 +2521,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>286</v>
+      </c>
+      <c r="D19" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>310</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>206049</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>286</v>
-      </c>
-      <c r="I19" s="7">
-        <v>194097</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -2637,10 +2625,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D21" s="7">
-        <v>46525</v>
+        <v>35304</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>104</v>
@@ -2652,10 +2640,10 @@
         <v>106</v>
       </c>
       <c r="H21" s="7">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I21" s="7">
-        <v>35304</v>
+        <v>46525</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>107</v>
@@ -2688,10 +2676,10 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>1016</v>
+        <v>965</v>
       </c>
       <c r="D22" s="7">
-        <v>676175</v>
+        <v>645717</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>113</v>
@@ -2703,10 +2691,10 @@
         <v>115</v>
       </c>
       <c r="H22" s="7">
-        <v>965</v>
+        <v>1016</v>
       </c>
       <c r="I22" s="7">
-        <v>645717</v>
+        <v>676175</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>116</v>
@@ -2739,25 +2727,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D23" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>1086</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>722700</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I23" s="7">
-        <v>681021</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -2806,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E7CB1A-0E75-4896-9ACC-293587104B58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608F7C8B-FFAE-4832-95C5-87341909A524}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2975,10 +2963,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>9210</v>
+        <v>10712</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>127</v>
@@ -2990,10 +2978,10 @@
         <v>129</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>10712</v>
+        <v>9210</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>130</v>
@@ -3026,10 +3014,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D6" s="7">
-        <v>134949</v>
+        <v>135638</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>136</v>
@@ -3041,10 +3029,10 @@
         <v>138</v>
       </c>
       <c r="H6" s="7">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="I6" s="7">
-        <v>135638</v>
+        <v>134949</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>139</v>
@@ -3077,25 +3065,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>218</v>
+      </c>
+      <c r="D7" s="7">
+        <v>146350</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>205</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>144159</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>218</v>
-      </c>
-      <c r="I7" s="7">
-        <v>146350</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -3142,7 +3130,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3157,7 +3145,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3181,28 +3169,28 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
+        <v>26</v>
+      </c>
+      <c r="D9" s="7">
+        <v>18470</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="7">
         <v>40</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>28238</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="H9" s="7">
-        <v>26</v>
-      </c>
-      <c r="I9" s="7">
-        <v>18470</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>149</v>
@@ -3232,28 +3220,28 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
+        <v>314</v>
+      </c>
+      <c r="D10" s="7">
+        <v>217780</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="7">
         <v>334</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>240753</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="H10" s="7">
-        <v>314</v>
-      </c>
-      <c r="I10" s="7">
-        <v>217780</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>157</v>
@@ -3283,25 +3271,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>340</v>
+      </c>
+      <c r="D11" s="7">
+        <v>236250</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>374</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>268991</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>340</v>
-      </c>
-      <c r="I11" s="7">
-        <v>236250</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3387,28 +3375,28 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7">
+        <v>10777</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="7">
         <v>16</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>12458</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="H13" s="7">
-        <v>15</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10777</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>168</v>
@@ -3438,28 +3426,28 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
+        <v>208</v>
+      </c>
+      <c r="D14" s="7">
+        <v>146266</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="7">
         <v>211</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>145506</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="H14" s="7">
-        <v>208</v>
-      </c>
-      <c r="I14" s="7">
-        <v>146266</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>175</v>
@@ -3489,25 +3477,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>223</v>
+      </c>
+      <c r="D15" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>227</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>157964</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>223</v>
-      </c>
-      <c r="I15" s="7">
-        <v>157043</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -3593,34 +3581,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>23472</v>
+        <v>11754</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>183</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I17" s="7">
-        <v>11754</v>
+        <v>23472</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -3629,13 +3617,13 @@
         <v>35226</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,34 +3632,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D18" s="7">
-        <v>156483</v>
+        <v>159583</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>190</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="H18" s="7">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I18" s="7">
-        <v>159583</v>
+        <v>156483</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M18" s="7">
         <v>456</v>
@@ -3680,13 +3668,13 @@
         <v>316066</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,25 +3683,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>243</v>
+      </c>
+      <c r="D19" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>265</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>179955</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>243</v>
-      </c>
-      <c r="I19" s="7">
-        <v>171337</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -3799,34 +3787,34 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
+        <v>75</v>
+      </c>
+      <c r="D21" s="7">
+        <v>51712</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H21" s="7">
         <v>105</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>73377</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H21" s="7">
-        <v>75</v>
-      </c>
-      <c r="I21" s="7">
-        <v>51712</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M21" s="7">
         <v>180</v>
@@ -3835,13 +3823,13 @@
         <v>125089</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,34 +3838,34 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
+        <v>949</v>
+      </c>
+      <c r="D22" s="7">
+        <v>659268</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H22" s="7">
         <v>966</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>677692</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H22" s="7">
-        <v>949</v>
-      </c>
-      <c r="I22" s="7">
-        <v>659268</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="M22" s="7">
         <v>1915</v>
@@ -3886,13 +3874,13 @@
         <v>1336960</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,25 +3889,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1024</v>
+      </c>
+      <c r="D23" s="7">
+        <v>710980</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>1071</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>751069</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I23" s="7">
-        <v>710980</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -3968,7 +3956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284A4839-E398-4F27-BDD2-9485FDC1DCF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E702BE7-9012-4338-9F17-5F11665128D8}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3985,7 +3973,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4098,7 +4086,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4113,7 +4101,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4137,34 +4125,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1119</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H5" s="7">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>2739</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1119</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4173,13 +4161,13 @@
         <v>3858</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,34 +4176,34 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>209</v>
+      </c>
+      <c r="D6" s="7">
+        <v>130535</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H6" s="7">
         <v>183</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121425</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H6" s="7">
-        <v>209</v>
-      </c>
-      <c r="I6" s="7">
-        <v>130535</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M6" s="7">
         <v>392</v>
@@ -4224,13 +4212,13 @@
         <v>251960</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,25 +4227,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>211</v>
+      </c>
+      <c r="D7" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>187</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>124164</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>211</v>
-      </c>
-      <c r="I7" s="7">
-        <v>131654</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -4304,7 +4292,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4319,7 +4307,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4343,34 +4331,34 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6346</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H9" s="7">
         <v>17</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>11379</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H9" s="7">
-        <v>10</v>
-      </c>
-      <c r="I9" s="7">
-        <v>6346</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M9" s="7">
         <v>27</v>
@@ -4379,13 +4367,13 @@
         <v>17724</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,34 +4382,34 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
+        <v>321</v>
+      </c>
+      <c r="D10" s="7">
+        <v>203270</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H10" s="7">
         <v>362</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>246003</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H10" s="7">
-        <v>321</v>
-      </c>
-      <c r="I10" s="7">
-        <v>203270</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
         <v>683</v>
@@ -4430,13 +4418,13 @@
         <v>449274</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,25 +4433,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>331</v>
+      </c>
+      <c r="D11" s="7">
+        <v>209616</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>379</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>257382</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>331</v>
-      </c>
-      <c r="I11" s="7">
-        <v>209616</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -4510,7 +4498,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4525,7 +4513,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4540,7 +4528,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,34 +4537,34 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6265</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="7">
+      <c r="F13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H13" s="7">
+        <v>17</v>
+      </c>
+      <c r="I13" s="7">
         <v>12191</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H13" s="7">
-        <v>10</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6265</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>20</v>
+        <v>259</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -4585,13 +4573,13 @@
         <v>18456</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,34 +4588,34 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
+        <v>262</v>
+      </c>
+      <c r="D14" s="7">
+        <v>182634</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="7">
         <v>246</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>176381</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H14" s="7">
-        <v>262</v>
-      </c>
-      <c r="I14" s="7">
-        <v>182634</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>508</v>
@@ -4636,13 +4624,13 @@
         <v>359015</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,25 +4639,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>272</v>
+      </c>
+      <c r="D15" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>263</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>188572</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>272</v>
-      </c>
-      <c r="I15" s="7">
-        <v>188899</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4716,7 +4704,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4731,7 +4719,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4746,7 +4734,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,34 +4743,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7">
+        <v>9639</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H17" s="7">
         <v>20</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>14415</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H17" s="7">
-        <v>14</v>
-      </c>
-      <c r="I17" s="7">
-        <v>9639</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -4791,13 +4779,13 @@
         <v>24054</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,34 +4794,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>230</v>
+      </c>
+      <c r="D18" s="7">
+        <v>162253</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H18" s="7">
         <v>214</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>158970</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H18" s="7">
-        <v>230</v>
-      </c>
-      <c r="I18" s="7">
-        <v>162253</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M18" s="7">
         <v>444</v>
@@ -4842,10 +4830,10 @@
         <v>321223</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>289</v>
@@ -4857,25 +4845,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>244</v>
+      </c>
+      <c r="D19" s="7">
+        <v>171892</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>234</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>173385</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>244</v>
-      </c>
-      <c r="I19" s="7">
-        <v>171892</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -4922,7 +4910,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4937,7 +4925,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4961,10 +4949,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D21" s="7">
-        <v>40724</v>
+        <v>23369</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>290</v>
@@ -4976,10 +4964,10 @@
         <v>292</v>
       </c>
       <c r="H21" s="7">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I21" s="7">
-        <v>23369</v>
+        <v>40724</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>293</v>
@@ -5012,10 +5000,10 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>1005</v>
+        <v>1022</v>
       </c>
       <c r="D22" s="7">
-        <v>702779</v>
+        <v>678692</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>299</v>
@@ -5027,10 +5015,10 @@
         <v>301</v>
       </c>
       <c r="H22" s="7">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="I22" s="7">
-        <v>678692</v>
+        <v>702779</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>302</v>
@@ -5063,25 +5051,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1058</v>
+      </c>
+      <c r="D23" s="7">
+        <v>702061</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>1063</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>743503</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1058</v>
-      </c>
-      <c r="I23" s="7">
-        <v>702061</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -5130,7 +5118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A907DC5D-8548-470E-9AA6-637A477B1A8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AA36EC-DDCA-4356-8654-0868CED60238}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5290,7 +5278,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,7 +5290,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>1268</v>
+        <v>758</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>311</v>
@@ -5317,7 +5305,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>753</v>
+        <v>1337</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>313</v>
@@ -5332,7 +5320,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>2021</v>
+        <v>2095</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>315</v>
@@ -5341,7 +5329,7 @@
         <v>316</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,49 +5338,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>106</v>
+      </c>
+      <c r="D6" s="7">
+        <v>56337</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H6" s="7">
         <v>114</v>
       </c>
-      <c r="D6" s="7">
-        <v>57235</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H6" s="7">
-        <v>106</v>
-      </c>
       <c r="I6" s="7">
-        <v>56198</v>
+        <v>60107</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M6" s="7">
         <v>220</v>
       </c>
       <c r="N6" s="7">
-        <v>113432</v>
+        <v>116444</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>141</v>
+        <v>323</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,25 +5389,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>108</v>
+      </c>
+      <c r="D7" s="7">
+        <v>57095</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>108</v>
-      </c>
       <c r="I7" s="7">
-        <v>56951</v>
+        <v>61444</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -5434,7 +5422,7 @@
         <v>224</v>
       </c>
       <c r="N7" s="7">
-        <v>115453</v>
+        <v>118539</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -5466,7 +5454,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5481,7 +5469,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5496,7 +5484,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,49 +5493,49 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3718</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="7">
         <v>7</v>
       </c>
-      <c r="D9" s="7">
-        <v>5026</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H9" s="7">
-        <v>6</v>
-      </c>
       <c r="I9" s="7">
-        <v>3782</v>
+        <v>5558</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>328</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>124</v>
+        <v>329</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>149</v>
+        <v>330</v>
       </c>
       <c r="M9" s="7">
         <v>13</v>
       </c>
       <c r="N9" s="7">
-        <v>8808</v>
+        <v>9276</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,49 +5544,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
+        <v>252</v>
+      </c>
+      <c r="D10" s="7">
+        <v>155581</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H10" s="7">
         <v>269</v>
       </c>
-      <c r="D10" s="7">
-        <v>170273</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="H10" s="7">
-        <v>252</v>
-      </c>
       <c r="I10" s="7">
-        <v>154983</v>
+        <v>176996</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>337</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M10" s="7">
         <v>521</v>
       </c>
       <c r="N10" s="7">
-        <v>325255</v>
+        <v>332577</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,25 +5595,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>258</v>
+      </c>
+      <c r="D11" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>276</v>
       </c>
-      <c r="D11" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>258</v>
-      </c>
       <c r="I11" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -5640,7 +5628,7 @@
         <v>534</v>
       </c>
       <c r="N11" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -5660,49 +5648,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>342</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>833</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>341</v>
+        <v>179</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,49 +5699,49 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4878</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H13" s="7">
         <v>9</v>
       </c>
-      <c r="D13" s="7">
-        <v>7487</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
       <c r="I13" s="7">
-        <v>4950</v>
+        <v>7702</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>110</v>
+        <v>349</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>12436</v>
+        <v>12581</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,28 +5750,28 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
+        <v>226</v>
+      </c>
+      <c r="D14" s="7">
+        <v>168194</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H14" s="7">
         <v>233</v>
       </c>
-      <c r="D14" s="7">
-        <v>193997</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H14" s="7">
-        <v>226</v>
-      </c>
       <c r="I14" s="7">
-        <v>171163</v>
+        <v>203709</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>356</v>
@@ -5795,7 +5783,7 @@
         <v>459</v>
       </c>
       <c r="N14" s="7">
-        <v>365161</v>
+        <v>371902</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>358</v>
@@ -5813,25 +5801,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>234</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>242</v>
       </c>
-      <c r="D15" s="7">
-        <v>201484</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>234</v>
-      </c>
       <c r="I15" s="7">
-        <v>176945</v>
+        <v>211411</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -5846,7 +5834,7 @@
         <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>378430</v>
+        <v>385298</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -5920,46 +5908,46 @@
         <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>8629</v>
+        <v>7797</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>362</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>363</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>7716</v>
+        <v>9436</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
       </c>
       <c r="N17" s="7">
-        <v>16345</v>
+        <v>17233</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,46 +5959,46 @@
         <v>331</v>
       </c>
       <c r="D18" s="7">
-        <v>280795</v>
+        <v>267661</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>371</v>
+        <v>270</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>246</v>
+        <v>369</v>
       </c>
       <c r="H18" s="7">
         <v>331</v>
       </c>
       <c r="I18" s="7">
-        <v>252917</v>
+        <v>296047</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>372</v>
+        <v>233</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>373</v>
+        <v>252</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M18" s="7">
         <v>662</v>
       </c>
       <c r="N18" s="7">
-        <v>533712</v>
+        <v>563707</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,7 +6010,7 @@
         <v>342</v>
       </c>
       <c r="D19" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -6037,7 +6025,7 @@
         <v>342</v>
       </c>
       <c r="I19" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -6052,7 +6040,7 @@
         <v>684</v>
       </c>
       <c r="N19" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -6072,49 +6060,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>374</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>833</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,49 +6111,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
+        <v>26</v>
+      </c>
+      <c r="D21" s="7">
+        <v>17151</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="7">
         <v>29</v>
       </c>
-      <c r="D21" s="7">
-        <v>22410</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="I21" s="7">
+        <v>24034</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="H21" s="7">
-        <v>26</v>
-      </c>
-      <c r="I21" s="7">
-        <v>17201</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M21" s="7">
         <v>55</v>
       </c>
       <c r="N21" s="7">
-        <v>39611</v>
+        <v>41185</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,49 +6162,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
+        <v>915</v>
+      </c>
+      <c r="D22" s="7">
+        <v>647773</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H22" s="7">
         <v>947</v>
       </c>
-      <c r="D22" s="7">
-        <v>702300</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>736858</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="H22" s="7">
-        <v>915</v>
-      </c>
-      <c r="I22" s="7">
-        <v>635260</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M22" s="7">
         <v>1862</v>
       </c>
       <c r="N22" s="7">
-        <v>1337560</v>
+        <v>1384632</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>94</v>
+        <v>392</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,25 +6213,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>942</v>
+      </c>
+      <c r="D23" s="7">
+        <v>665740</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>976</v>
       </c>
-      <c r="D23" s="7">
-        <v>724710</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>942</v>
-      </c>
       <c r="I23" s="7">
-        <v>653294</v>
+        <v>760892</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -6258,7 +6246,7 @@
         <v>1918</v>
       </c>
       <c r="N23" s="7">
-        <v>1378003</v>
+        <v>1426632</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
